--- a/plantillas/RegistroCompras.xlsx
+++ b/plantillas/RegistroCompras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USAT\2024-2\calidad\GOTA_A_GOTA\grupogota_servidor\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A95B8C-6741-4F28-85B9-6F6F679FFC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F1F1BB-9E65-4D6E-9460-942F71FC9D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>ISC</t>
   </si>
@@ -59,250 +59,82 @@
     <t>FORMATO 8.1: REGISTRO DE COMPRAS</t>
   </si>
   <si>
-    <t>(TABLA 10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   TIPO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     NÚMERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   CORRELATIVO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DEL REGISTRO O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   CÓDIGO UNICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DE LA OPERACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    O DOCUMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EMISIÓN DEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    COMPROBANTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          DE PAGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        FECHA DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      FECHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   VENCIMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        O FECHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DE PAGO (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         FECHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      N° DEL COMPROBANTE DE PAGO,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       DOCUMENTO, N° DE ORDEN DEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      FORMULARIO FÍSICO O VIRTUAL, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     N° DE DUA, DSI O LIQUIDACIÓN DE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    COBRANZA U OTROS DOCUMENTOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EMITIDOS POR SUNAT PARA ACREDITAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EL CRÉDITO FISCAL EN LA IMPORTACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          O DOCUMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         (TABLA 11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ADUANERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         DEPENDENCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        CÓDIGO DE LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             SERIE O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         O DSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        LA DUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EMISIÓN DE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">         AÑO DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (TABLA 10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (TABLA 2)</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>APELLIDOS</t>
-  </si>
-  <si>
-    <t>Y NOMBRES,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DENOMINACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O RAZÓN </t>
-  </si>
-  <si>
-    <t>SOCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPONIBLE </t>
-  </si>
-  <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     INFORMACIÓN DEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        PROVEEDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             GRAVADAS Y/O DE EXPORTACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ADQUISICIONES GRAVADAS DESTINADAS A OPERACIONES</t>
-  </si>
-  <si>
-    <t>GRAVADAS Y/O DE EXPORTACIÓN Y A OPERACIONES NO GRAVADAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                 NO GRAVADAS</t>
-  </si>
-  <si>
-    <t>DE LAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        VALOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ADQUISICIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   GRAVADAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CARGOS</t>
-  </si>
-  <si>
-    <t>TRIBUTOS Y</t>
-  </si>
-  <si>
-    <t>OTROS</t>
-  </si>
-  <si>
-    <t>IMPORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        N° DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  COMPROBANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DE PAGO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EMITIDO POR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    SUJETO NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DOMICILIADO (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             COMPROBANTE DE PAGO</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    EMISIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CAMBIO</t>
-  </si>
-  <si>
-    <t>N° DEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPROBANTE </t>
-  </si>
-  <si>
-    <t>DE PAGO O</t>
-  </si>
-  <si>
-    <t>DOCUMENTO</t>
-  </si>
-  <si>
-    <t>CONSTANCIA DE DEPÓSITO</t>
-  </si>
-  <si>
-    <t>DE DETRACCIÓN (3)</t>
-  </si>
-  <si>
-    <t>REFERENCIA DEL COMPROBANTE DE PAGO</t>
-  </si>
-  <si>
     <t xml:space="preserve">           TOTALES</t>
   </si>
   <si>
-    <t>O DOCUMENTO ORIGINAL QUE SE MODIFICA</t>
+    <t>DECO ELERA S.A.C.</t>
   </si>
   <si>
-    <t>DECO ELERA S.A.C.</t>
+    <t>NÚMERO CORRELATIVO DEL REGISTRO OCÓDIGO UNICODE LA OPERACIÓN</t>
+  </si>
+  <si>
+    <t>FECHA DE EMISIÓN DEL COMPROBANTE DE PAGO O DOCUMENTO</t>
+  </si>
+  <si>
+    <t>FECHA DE VENCIMIENTO O FECHA DE PAGO</t>
+  </si>
+  <si>
+    <t>COMPROBANTE DE PAGO O DOCUMENTO</t>
+  </si>
+  <si>
+    <t>SERIE O CÓDIGO DE LA DEPENDENCIA ADUANERA</t>
+  </si>
+  <si>
+    <t>AÑO DE EMISIÓN DE LA DUA O DSI</t>
+  </si>
+  <si>
+    <t>N° DEL COMPROBANTE DE PAGO, DOCUMENTO, N° DE ORDEN DEL FORMULARIO FÍSICO O VIRTUAL, N° DE DUA, DSI O LIQUIDACIÓN DE COBRANZA U OTROS DOCUMENTOS EMITIDOS POR SUNAT PARA ACREDITAR EL CRÉDITO FISCAL EN LA IMPORTACIÓN</t>
+  </si>
+  <si>
+    <t>TIPO (TABLA 10)</t>
+  </si>
+  <si>
+    <t>INFORMACIÓN DEL PROVEEDOR</t>
+  </si>
+  <si>
+    <t>TIPO (TABLA 2)</t>
+  </si>
+  <si>
+    <t>APELLIDOS Y NOMBRES, DENOMINACIÓN O RAZÓN SOCIAL</t>
+  </si>
+  <si>
+    <t>BASE IMPONIBLE</t>
+  </si>
+  <si>
+    <t>ADQUISICIONES GRAVADAS DESTINADAS A OPERACIONES GRAVADAS Y/O DE EXPORTACIÓN</t>
+  </si>
+  <si>
+    <t>ADQUISICIONES GRAVADAS DESTINADAS A OPERACIONES GRAVADAS Y/O DE EXPORTACIÓN Y A OPERACIONES NO GRAVADAS</t>
+  </si>
+  <si>
+    <t>ADQUISICIONES GRAVADAS DESTINADAS A OPERACIONES NO GRAVADAS</t>
+  </si>
+  <si>
+    <t>VALOR DE LAS ADQUISICIONES NO GRAVADAS</t>
+  </si>
+  <si>
+    <t>OTROS TRIBUTOS Y CARGOS</t>
+  </si>
+  <si>
+    <t>IMPORTE TOTAL</t>
+  </si>
+  <si>
+    <t>N° DE COMPROBANTE DE PAGO EMITIDO POR SUJETO NO DOMICILIADO (2)</t>
+  </si>
+  <si>
+    <t>TIPO DE CAMBIO</t>
+  </si>
+  <si>
+    <t>N° DEL COMPROBANTE DE PAGO O DOCUMENTO</t>
+  </si>
+  <si>
+    <t>REFERENCIA DEL COMPROBANTE DE PAGO O DOCUMENTO ORIGINAL QUE SE MODIFICA</t>
+  </si>
+  <si>
+    <t>FECHA DE EMISIÓN</t>
+  </si>
+  <si>
+    <t>CONSTANCIA DE DEPÓSITO DE DETRACCIÓN (3)</t>
   </si>
 </sst>
 </file>
@@ -312,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ [$€]* #,##0.00_ ;_ [$€]* \-#,##0.00_ ;_ [$€]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -370,23 +202,6 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -547,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -564,122 +379,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -688,26 +387,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,35 +417,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4085,8 +3795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="27" zoomScaleNormal="82" zoomScaleSheetLayoutView="23" workbookViewId="0">
-      <selection activeCell="AB6" sqref="A6:AB6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="23" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4130,13 +3840,14 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="4">
         <v>20612188930</v>
       </c>
       <c r="C4" s="4"/>
@@ -4146,443 +3857,321 @@
         <v>6</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="66" t="s">
-        <v>91</v>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
     </row>
     <row r="7" spans="1:28" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="23" t="s">
-        <v>78</v>
+      <c r="A7" s="31" t="s">
+        <v>12</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="27" t="s">
+      <c r="B7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="27"/>
+      <c r="M7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="27"/>
+      <c r="O7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="76" t="s">
-        <v>56</v>
+      <c r="U7" s="17" t="s">
+        <v>30</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="70" t="s">
-        <v>59</v>
+      <c r="V7" s="20" t="s">
+        <v>35</v>
       </c>
-      <c r="L7" s="71"/>
-      <c r="M7" s="70" t="s">
-        <v>59</v>
+      <c r="W7" s="22"/>
+      <c r="X7" s="17" t="s">
+        <v>31</v>
       </c>
-      <c r="N7" s="84"/>
-      <c r="O7" s="70" t="s">
-        <v>59</v>
+      <c r="Y7" s="20" t="s">
+        <v>33</v>
       </c>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="V7" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="W7" s="72"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="73"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="22"/>
     </row>
     <row r="8" spans="1:28" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="85"/>
-      <c r="O8" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="R8" s="54"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="V8" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="W8" s="74"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="75"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="25"/>
     </row>
     <row r="9" spans="1:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>13</v>
+      <c r="A9" s="32"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="30" t="s">
+        <v>19</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="E9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="42" t="s">
-        <v>49</v>
+      <c r="I9" s="38"/>
+      <c r="J9" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39" t="s">
-        <v>62</v>
+      <c r="K9" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39" t="s">
-        <v>69</v>
+      <c r="L9" s="17" t="s">
+        <v>4</v>
       </c>
-      <c r="T9" s="39" t="s">
-        <v>70</v>
+      <c r="M9" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="U9" s="48" t="s">
-        <v>74</v>
+      <c r="N9" s="17" t="s">
+        <v>4</v>
       </c>
-      <c r="V9" s="57"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="37" t="s">
-        <v>48</v>
+      <c r="O9" s="17" t="s">
+        <v>23</v>
       </c>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="44" t="s">
-        <v>82</v>
+      <c r="P9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>14</v>
+      <c r="A10" s="32"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="17" t="s">
+        <v>21</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>19</v>
+      <c r="I10" s="17" t="s">
+        <v>3</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="T10" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="U10" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="V10" s="39"/>
-      <c r="W10" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="X10" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y10" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA10" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB10" s="44" t="s">
-        <v>83</v>
-      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
     </row>
     <row r="11" spans="1:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="R11" s="55"/>
-      <c r="S11" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="T11" s="57"/>
-      <c r="U11" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="V11" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="W11" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="X11" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="44" t="s">
-        <v>84</v>
-      </c>
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
     </row>
     <row r="12" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="41"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="V12" s="41"/>
-      <c r="W12" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="44" t="s">
-        <v>85</v>
-      </c>
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
     </row>
     <row r="13" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
     </row>
     <row r="14" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -4594,19 +4183,19 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="65" t="s">
-        <v>89</v>
+      <c r="J14" s="15" t="s">
+        <v>10</v>
       </c>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="62"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="12"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
     </row>
@@ -4631,20 +4220,43 @@
       <c r="A17" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="36">
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="V9:V13"/>
+    <mergeCell ref="W9:W13"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="D7:G8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="F9:F13"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="Y7:AB7"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="Q7:Q13"/>
+    <mergeCell ref="R7:R13"/>
+    <mergeCell ref="S7:S13"/>
+    <mergeCell ref="T7:T13"/>
+    <mergeCell ref="U7:U13"/>
+    <mergeCell ref="X7:X13"/>
+    <mergeCell ref="Y9:Y13"/>
+    <mergeCell ref="Z9:Z13"/>
+    <mergeCell ref="AA9:AA13"/>
+    <mergeCell ref="AB9:AB13"/>
+    <mergeCell ref="Y7:AB8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
